--- a/src/main/resources/Data/Data.xlsx
+++ b/src/main/resources/Data/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Correo</t>
   </si>
@@ -68,10 +68,13 @@
     <t>Id</t>
   </si>
   <si>
+    <t>1-570-236-7033</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>1-570-236-7033</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,10 +468,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
